--- a/stock/data/한진칼.xlsx
+++ b/stock/data/한진칼.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2591"/>
+  <dimension ref="A1:G2624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60038,10 +60038,769 @@
         <v>59500</v>
       </c>
       <c r="F2591" t="n">
-        <v>56703</v>
+        <v>56844</v>
       </c>
       <c r="G2591" t="n">
         <v>0.1683501683501683</v>
+      </c>
+    </row>
+    <row r="2592">
+      <c r="A2592" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B2592" t="n">
+        <v>59600</v>
+      </c>
+      <c r="C2592" t="n">
+        <v>62000</v>
+      </c>
+      <c r="D2592" t="n">
+        <v>59600</v>
+      </c>
+      <c r="E2592" t="n">
+        <v>61500</v>
+      </c>
+      <c r="F2592" t="n">
+        <v>99521</v>
+      </c>
+      <c r="G2592" t="n">
+        <v>3.361344537815126</v>
+      </c>
+    </row>
+    <row r="2593">
+      <c r="A2593" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B2593" t="n">
+        <v>60300</v>
+      </c>
+      <c r="C2593" t="n">
+        <v>62200</v>
+      </c>
+      <c r="D2593" t="n">
+        <v>59800</v>
+      </c>
+      <c r="E2593" t="n">
+        <v>60900</v>
+      </c>
+      <c r="F2593" t="n">
+        <v>56747</v>
+      </c>
+      <c r="G2593" t="n">
+        <v>-0.975609756097561</v>
+      </c>
+    </row>
+    <row r="2594">
+      <c r="A2594" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B2594" t="n">
+        <v>60200</v>
+      </c>
+      <c r="C2594" t="n">
+        <v>61400</v>
+      </c>
+      <c r="D2594" t="n">
+        <v>59700</v>
+      </c>
+      <c r="E2594" t="n">
+        <v>60500</v>
+      </c>
+      <c r="F2594" t="n">
+        <v>67766</v>
+      </c>
+      <c r="G2594" t="n">
+        <v>-0.6568144499178982</v>
+      </c>
+    </row>
+    <row r="2595">
+      <c r="A2595" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B2595" t="n">
+        <v>60400</v>
+      </c>
+      <c r="C2595" t="n">
+        <v>61600</v>
+      </c>
+      <c r="D2595" t="n">
+        <v>60000</v>
+      </c>
+      <c r="E2595" t="n">
+        <v>60900</v>
+      </c>
+      <c r="F2595" t="n">
+        <v>55391</v>
+      </c>
+      <c r="G2595" t="n">
+        <v>0.6611570247933884</v>
+      </c>
+    </row>
+    <row r="2596">
+      <c r="A2596" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B2596" t="n">
+        <v>59900</v>
+      </c>
+      <c r="C2596" t="n">
+        <v>61700</v>
+      </c>
+      <c r="D2596" t="n">
+        <v>59900</v>
+      </c>
+      <c r="E2596" t="n">
+        <v>60200</v>
+      </c>
+      <c r="F2596" t="n">
+        <v>44618</v>
+      </c>
+      <c r="G2596" t="n">
+        <v>-1.149425287356322</v>
+      </c>
+    </row>
+    <row r="2597">
+      <c r="A2597" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B2597" t="n">
+        <v>60000</v>
+      </c>
+      <c r="C2597" t="n">
+        <v>62300</v>
+      </c>
+      <c r="D2597" t="n">
+        <v>59500</v>
+      </c>
+      <c r="E2597" t="n">
+        <v>60700</v>
+      </c>
+      <c r="F2597" t="n">
+        <v>42097</v>
+      </c>
+      <c r="G2597" t="n">
+        <v>0.8305647840531563</v>
+      </c>
+    </row>
+    <row r="2598">
+      <c r="A2598" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B2598" t="n">
+        <v>62000</v>
+      </c>
+      <c r="C2598" t="n">
+        <v>63000</v>
+      </c>
+      <c r="D2598" t="n">
+        <v>61400</v>
+      </c>
+      <c r="E2598" t="n">
+        <v>62100</v>
+      </c>
+      <c r="F2598" t="n">
+        <v>59542</v>
+      </c>
+      <c r="G2598" t="n">
+        <v>2.306425041186162</v>
+      </c>
+    </row>
+    <row r="2599">
+      <c r="A2599" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B2599" t="n">
+        <v>60700</v>
+      </c>
+      <c r="C2599" t="n">
+        <v>63000</v>
+      </c>
+      <c r="D2599" t="n">
+        <v>60200</v>
+      </c>
+      <c r="E2599" t="n">
+        <v>61600</v>
+      </c>
+      <c r="F2599" t="n">
+        <v>173734</v>
+      </c>
+      <c r="G2599" t="n">
+        <v>-0.8051529790660225</v>
+      </c>
+    </row>
+    <row r="2600">
+      <c r="A2600" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B2600" t="n">
+        <v>61000</v>
+      </c>
+      <c r="C2600" t="n">
+        <v>61500</v>
+      </c>
+      <c r="D2600" t="n">
+        <v>59300</v>
+      </c>
+      <c r="E2600" t="n">
+        <v>59300</v>
+      </c>
+      <c r="F2600" t="n">
+        <v>69646</v>
+      </c>
+      <c r="G2600" t="n">
+        <v>-3.733766233766234</v>
+      </c>
+    </row>
+    <row r="2601">
+      <c r="A2601" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B2601" t="n">
+        <v>59300</v>
+      </c>
+      <c r="C2601" t="n">
+        <v>59900</v>
+      </c>
+      <c r="D2601" t="n">
+        <v>57400</v>
+      </c>
+      <c r="E2601" t="n">
+        <v>58700</v>
+      </c>
+      <c r="F2601" t="n">
+        <v>46797</v>
+      </c>
+      <c r="G2601" t="n">
+        <v>-1.011804384485666</v>
+      </c>
+    </row>
+    <row r="2602">
+      <c r="A2602" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B2602" t="n">
+        <v>58000</v>
+      </c>
+      <c r="C2602" t="n">
+        <v>58200</v>
+      </c>
+      <c r="D2602" t="n">
+        <v>57100</v>
+      </c>
+      <c r="E2602" t="n">
+        <v>57600</v>
+      </c>
+      <c r="F2602" t="n">
+        <v>40806</v>
+      </c>
+      <c r="G2602" t="n">
+        <v>-1.873935264054515</v>
+      </c>
+    </row>
+    <row r="2603">
+      <c r="A2603" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B2603" t="n">
+        <v>57200</v>
+      </c>
+      <c r="C2603" t="n">
+        <v>58400</v>
+      </c>
+      <c r="D2603" t="n">
+        <v>56300</v>
+      </c>
+      <c r="E2603" t="n">
+        <v>57500</v>
+      </c>
+      <c r="F2603" t="n">
+        <v>50278</v>
+      </c>
+      <c r="G2603" t="n">
+        <v>-0.1736111111111111</v>
+      </c>
+    </row>
+    <row r="2604">
+      <c r="A2604" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B2604" t="n">
+        <v>58600</v>
+      </c>
+      <c r="C2604" t="n">
+        <v>58800</v>
+      </c>
+      <c r="D2604" t="n">
+        <v>57200</v>
+      </c>
+      <c r="E2604" t="n">
+        <v>57400</v>
+      </c>
+      <c r="F2604" t="n">
+        <v>42788</v>
+      </c>
+      <c r="G2604" t="n">
+        <v>-0.1739130434782609</v>
+      </c>
+    </row>
+    <row r="2605">
+      <c r="A2605" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B2605" t="n">
+        <v>56800</v>
+      </c>
+      <c r="C2605" t="n">
+        <v>56800</v>
+      </c>
+      <c r="D2605" t="n">
+        <v>54500</v>
+      </c>
+      <c r="E2605" t="n">
+        <v>55700</v>
+      </c>
+      <c r="F2605" t="n">
+        <v>85409</v>
+      </c>
+      <c r="G2605" t="n">
+        <v>-2.961672473867596</v>
+      </c>
+    </row>
+    <row r="2606">
+      <c r="A2606" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B2606" t="n">
+        <v>57000</v>
+      </c>
+      <c r="C2606" t="n">
+        <v>59400</v>
+      </c>
+      <c r="D2606" t="n">
+        <v>57000</v>
+      </c>
+      <c r="E2606" t="n">
+        <v>58800</v>
+      </c>
+      <c r="F2606" t="n">
+        <v>56812</v>
+      </c>
+      <c r="G2606" t="n">
+        <v>5.565529622980251</v>
+      </c>
+    </row>
+    <row r="2607">
+      <c r="A2607" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B2607" t="n">
+        <v>58200</v>
+      </c>
+      <c r="C2607" t="n">
+        <v>59200</v>
+      </c>
+      <c r="D2607" t="n">
+        <v>57400</v>
+      </c>
+      <c r="E2607" t="n">
+        <v>58000</v>
+      </c>
+      <c r="F2607" t="n">
+        <v>28524</v>
+      </c>
+      <c r="G2607" t="n">
+        <v>-1.360544217687075</v>
+      </c>
+    </row>
+    <row r="2608">
+      <c r="A2608" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B2608" t="n">
+        <v>58600</v>
+      </c>
+      <c r="C2608" t="n">
+        <v>58800</v>
+      </c>
+      <c r="D2608" t="n">
+        <v>58000</v>
+      </c>
+      <c r="E2608" t="n">
+        <v>58400</v>
+      </c>
+      <c r="F2608" t="n">
+        <v>21912</v>
+      </c>
+      <c r="G2608" t="n">
+        <v>0.6896551724137931</v>
+      </c>
+    </row>
+    <row r="2609">
+      <c r="A2609" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B2609" t="n">
+        <v>57600</v>
+      </c>
+      <c r="C2609" t="n">
+        <v>58400</v>
+      </c>
+      <c r="D2609" t="n">
+        <v>57100</v>
+      </c>
+      <c r="E2609" t="n">
+        <v>57400</v>
+      </c>
+      <c r="F2609" t="n">
+        <v>25589</v>
+      </c>
+      <c r="G2609" t="n">
+        <v>-1.712328767123288</v>
+      </c>
+    </row>
+    <row r="2610">
+      <c r="A2610" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B2610" t="n">
+        <v>57700</v>
+      </c>
+      <c r="C2610" t="n">
+        <v>58200</v>
+      </c>
+      <c r="D2610" t="n">
+        <v>57200</v>
+      </c>
+      <c r="E2610" t="n">
+        <v>57700</v>
+      </c>
+      <c r="F2610" t="n">
+        <v>22873</v>
+      </c>
+      <c r="G2610" t="n">
+        <v>0.5226480836236934</v>
+      </c>
+    </row>
+    <row r="2611">
+      <c r="A2611" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B2611" t="n">
+        <v>58800</v>
+      </c>
+      <c r="C2611" t="n">
+        <v>60100</v>
+      </c>
+      <c r="D2611" t="n">
+        <v>58600</v>
+      </c>
+      <c r="E2611" t="n">
+        <v>60100</v>
+      </c>
+      <c r="F2611" t="n">
+        <v>36545</v>
+      </c>
+      <c r="G2611" t="n">
+        <v>4.15944540727903</v>
+      </c>
+    </row>
+    <row r="2612">
+      <c r="A2612" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B2612" t="n">
+        <v>60100</v>
+      </c>
+      <c r="C2612" t="n">
+        <v>60300</v>
+      </c>
+      <c r="D2612" t="n">
+        <v>59100</v>
+      </c>
+      <c r="E2612" t="n">
+        <v>59800</v>
+      </c>
+      <c r="F2612" t="n">
+        <v>39520</v>
+      </c>
+      <c r="G2612" t="n">
+        <v>-0.4991680532445923</v>
+      </c>
+    </row>
+    <row r="2613">
+      <c r="A2613" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B2613" t="n">
+        <v>59100</v>
+      </c>
+      <c r="C2613" t="n">
+        <v>60600</v>
+      </c>
+      <c r="D2613" t="n">
+        <v>59100</v>
+      </c>
+      <c r="E2613" t="n">
+        <v>59800</v>
+      </c>
+      <c r="F2613" t="n">
+        <v>39759</v>
+      </c>
+      <c r="G2613" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2614">
+      <c r="A2614" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B2614" t="n">
+        <v>60700</v>
+      </c>
+      <c r="C2614" t="n">
+        <v>60700</v>
+      </c>
+      <c r="D2614" t="n">
+        <v>59500</v>
+      </c>
+      <c r="E2614" t="n">
+        <v>59700</v>
+      </c>
+      <c r="F2614" t="n">
+        <v>24801</v>
+      </c>
+      <c r="G2614" t="n">
+        <v>-0.1672240802675585</v>
+      </c>
+    </row>
+    <row r="2615">
+      <c r="A2615" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B2615" t="n">
+        <v>60900</v>
+      </c>
+      <c r="C2615" t="n">
+        <v>63500</v>
+      </c>
+      <c r="D2615" t="n">
+        <v>60300</v>
+      </c>
+      <c r="E2615" t="n">
+        <v>62700</v>
+      </c>
+      <c r="F2615" t="n">
+        <v>98890</v>
+      </c>
+      <c r="G2615" t="n">
+        <v>5.025125628140704</v>
+      </c>
+    </row>
+    <row r="2616">
+      <c r="A2616" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B2616" t="n">
+        <v>63300</v>
+      </c>
+      <c r="C2616" t="n">
+        <v>64000</v>
+      </c>
+      <c r="D2616" t="n">
+        <v>62200</v>
+      </c>
+      <c r="E2616" t="n">
+        <v>63500</v>
+      </c>
+      <c r="F2616" t="n">
+        <v>53390</v>
+      </c>
+      <c r="G2616" t="n">
+        <v>1.27591706539075</v>
+      </c>
+    </row>
+    <row r="2617">
+      <c r="A2617" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B2617" t="n">
+        <v>63600</v>
+      </c>
+      <c r="C2617" t="n">
+        <v>64600</v>
+      </c>
+      <c r="D2617" t="n">
+        <v>62300</v>
+      </c>
+      <c r="E2617" t="n">
+        <v>64000</v>
+      </c>
+      <c r="F2617" t="n">
+        <v>114175</v>
+      </c>
+      <c r="G2617" t="n">
+        <v>0.7874015748031495</v>
+      </c>
+    </row>
+    <row r="2618">
+      <c r="A2618" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B2618" t="n">
+        <v>64900</v>
+      </c>
+      <c r="C2618" t="n">
+        <v>65500</v>
+      </c>
+      <c r="D2618" t="n">
+        <v>63500</v>
+      </c>
+      <c r="E2618" t="n">
+        <v>64000</v>
+      </c>
+      <c r="F2618" t="n">
+        <v>34997</v>
+      </c>
+      <c r="G2618" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2619">
+      <c r="A2619" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B2619" t="n">
+        <v>64500</v>
+      </c>
+      <c r="C2619" t="n">
+        <v>64500</v>
+      </c>
+      <c r="D2619" t="n">
+        <v>63100</v>
+      </c>
+      <c r="E2619" t="n">
+        <v>64000</v>
+      </c>
+      <c r="F2619" t="n">
+        <v>25829</v>
+      </c>
+      <c r="G2619" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2620">
+      <c r="A2620" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B2620" t="n">
+        <v>64100</v>
+      </c>
+      <c r="C2620" t="n">
+        <v>64100</v>
+      </c>
+      <c r="D2620" t="n">
+        <v>62400</v>
+      </c>
+      <c r="E2620" t="n">
+        <v>62400</v>
+      </c>
+      <c r="F2620" t="n">
+        <v>25987</v>
+      </c>
+      <c r="G2620" t="n">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="2621">
+      <c r="A2621" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B2621" t="n">
+        <v>63900</v>
+      </c>
+      <c r="C2621" t="n">
+        <v>66400</v>
+      </c>
+      <c r="D2621" t="n">
+        <v>63100</v>
+      </c>
+      <c r="E2621" t="n">
+        <v>65100</v>
+      </c>
+      <c r="F2621" t="n">
+        <v>90658</v>
+      </c>
+      <c r="G2621" t="n">
+        <v>4.326923076923077</v>
+      </c>
+    </row>
+    <row r="2622">
+      <c r="A2622" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B2622" t="n">
+        <v>63700</v>
+      </c>
+      <c r="C2622" t="n">
+        <v>65400</v>
+      </c>
+      <c r="D2622" t="n">
+        <v>63000</v>
+      </c>
+      <c r="E2622" t="n">
+        <v>65300</v>
+      </c>
+      <c r="F2622" t="n">
+        <v>31422</v>
+      </c>
+      <c r="G2622" t="n">
+        <v>0.3072196620583718</v>
+      </c>
+    </row>
+    <row r="2623">
+      <c r="A2623" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B2623" t="n">
+        <v>66500</v>
+      </c>
+      <c r="C2623" t="n">
+        <v>66500</v>
+      </c>
+      <c r="D2623" t="n">
+        <v>64100</v>
+      </c>
+      <c r="E2623" t="n">
+        <v>65900</v>
+      </c>
+      <c r="F2623" t="n">
+        <v>30946</v>
+      </c>
+      <c r="G2623" t="n">
+        <v>0.9188361408882083</v>
+      </c>
+    </row>
+    <row r="2624">
+      <c r="A2624" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B2624" t="n">
+        <v>64500</v>
+      </c>
+      <c r="C2624" t="n">
+        <v>66400</v>
+      </c>
+      <c r="D2624" t="n">
+        <v>64200</v>
+      </c>
+      <c r="E2624" t="n">
+        <v>65900</v>
+      </c>
+      <c r="F2624" t="n">
+        <v>28313</v>
+      </c>
+      <c r="G2624" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
